--- a/src/experiment/results/experiment_results_sonar.xlsx
+++ b/src/experiment/results/experiment_results_sonar.xlsx
@@ -529,7 +529,7 @@
         <v>0.7499542909967327</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05268540382385254</v>
+        <v>0.07315557003021241</v>
       </c>
       <c r="H2" t="n">
         <v>15.4</v>
@@ -573,7 +573,7 @@
         <v>0.7074398500354274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04156363010406494</v>
+        <v>0.04016585350036621</v>
       </c>
       <c r="H3" t="n">
         <v>19.8</v>
@@ -617,7 +617,7 @@
         <v>0.6776226362215324</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03967974185943603</v>
+        <v>0.03932895660400391</v>
       </c>
       <c r="H4" t="n">
         <v>13.1</v>
@@ -661,7 +661,7 @@
         <v>0.6504718322202409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0402280330657959</v>
+        <v>0.04415221214294433</v>
       </c>
       <c r="H5" t="n">
         <v>17.1</v>
@@ -705,7 +705,7 @@
         <v>0.7456668957559383</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04999334812164306</v>
+        <v>0.04783997535705566</v>
       </c>
       <c r="H6" t="n">
         <v>60</v>
@@ -749,7 +749,7 @@
         <v>0.7121941449582125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04689474105834961</v>
+        <v>0.04843802452087402</v>
       </c>
       <c r="H7" t="n">
         <v>60</v>
@@ -793,7 +793,7 @@
         <v>0.6663273167464158</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04694392681121826</v>
+        <v>0.04734158515930176</v>
       </c>
       <c r="H8" t="n">
         <v>60</v>
@@ -837,7 +837,7 @@
         <v>0.6638754934476399</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05625815391540527</v>
+        <v>0.04760251045227051</v>
       </c>
       <c r="H9" t="n">
         <v>60</v>
@@ -881,7 +881,7 @@
         <v>0.7486566817954209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2291288137435913</v>
+        <v>0.2194863080978394</v>
       </c>
       <c r="H10" t="n">
         <v>12</v>
@@ -927,7 +927,7 @@
         <v>0.7121941449582125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.059360671043396</v>
+        <v>0.05894367694854737</v>
       </c>
       <c r="H11" t="n">
         <v>21.6</v>
@@ -973,7 +973,7 @@
         <v>0.6876233720391355</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2007958173751831</v>
+        <v>0.2000225305557251</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>0.6766446743858756</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1372164249420166</v>
+        <v>0.1443576335906983</v>
       </c>
       <c r="H13" t="n">
         <v>18</v>
@@ -1065,7 +1065,7 @@
         <v>0.7670403265978334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2724072217941284</v>
+        <v>0.276418924331665</v>
       </c>
       <c r="H14" t="n">
         <v>8</v>
@@ -1113,7 +1113,7 @@
         <v>0.7594840859089339</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6517429113388061</v>
+        <v>0.634686541557312</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
@@ -1161,7 +1161,7 @@
         <v>0.7087342037330452</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1993364334106445</v>
+        <v>0.1936652183532715</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1209,7 +1209,7 @@
         <v>0.6945310981053225</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4243141412734985</v>
+        <v>0.4134370565414429</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -1257,7 +1257,7 @@
         <v>0.7482849779427041</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08896749019622803</v>
+        <v>0.0946350336074829</v>
       </c>
       <c r="H18" t="n">
         <v>60</v>
@@ -1303,7 +1303,7 @@
         <v>0.7167839921931446</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09567971229553222</v>
+        <v>0.100666880607605</v>
       </c>
       <c r="H19" t="n">
         <v>60</v>
@@ -1349,7 +1349,7 @@
         <v>0.697693706046186</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09362497329711914</v>
+        <v>0.09657671451568603</v>
       </c>
       <c r="H20" t="n">
         <v>60</v>
@@ -1395,7 +1395,7 @@
         <v>0.6560648578401674</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1021967887878418</v>
+        <v>0.09381198883056641</v>
       </c>
       <c r="H21" t="n">
         <v>60</v>
@@ -1441,7 +1441,7 @@
         <v>0.7331118713827341</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3695800304412842</v>
+        <v>0.3641945362091065</v>
       </c>
       <c r="H22" t="n">
         <v>14</v>
@@ -1485,7 +1485,7 @@
         <v>0.7119847685940587</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3572391748428345</v>
+        <v>0.3514102935791016</v>
       </c>
       <c r="H23" t="n">
         <v>9.800000000000001</v>
@@ -1529,7 +1529,7 @@
         <v>0.6632827352803957</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3631019115447998</v>
+        <v>0.3618934392929077</v>
       </c>
       <c r="H24" t="n">
         <v>11</v>
@@ -1573,7 +1573,7 @@
         <v>0.6626429198211021</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3566295385360718</v>
+        <v>0.3517910242080688</v>
       </c>
       <c r="H25" t="n">
         <v>10</v>
@@ -1617,7 +1617,7 @@
         <v>0.7542274749182228</v>
       </c>
       <c r="G26" t="n">
-        <v>1.393941855430603</v>
+        <v>1.383080744743347</v>
       </c>
       <c r="H26" t="n">
         <v>14.2</v>
@@ -1663,7 +1663,7 @@
         <v>0.7109382988258892</v>
       </c>
       <c r="G27" t="n">
-        <v>1.430451726913452</v>
+        <v>1.409407305717468</v>
       </c>
       <c r="H27" t="n">
         <v>15</v>
@@ -1709,7 +1709,7 @@
         <v>0.6776226362215324</v>
       </c>
       <c r="G28" t="n">
-        <v>1.382846808433533</v>
+        <v>1.37535240650177</v>
       </c>
       <c r="H28" t="n">
         <v>12.9</v>
@@ -1755,7 +1755,7 @@
         <v>0.663384276339776</v>
       </c>
       <c r="G29" t="n">
-        <v>1.43127429485321</v>
+        <v>1.423542594909668</v>
       </c>
       <c r="H29" t="n">
         <v>15</v>

--- a/src/experiment/results/experiment_results_sonar.xlsx
+++ b/src/experiment/results/experiment_results_sonar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,26 @@
           <t>n_features</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top 10 Correlation Features</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Count</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Ratio</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Common Features</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +568,22 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>11, 12, 45, 47, 49</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,6 +628,22 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>9, 11, 12, 20, 21, 43, 46</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,6 +688,22 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>11, 12, 47, 49</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -680,6 +748,22 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1, 9, 12, 39, 48</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +808,22 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>9, 10, 11, 12, 13, 45, 46, 47, 48, 49</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -768,6 +868,22 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>9, 11, 12, 13, 20, 21, 36, 37, 43, 46</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -812,6 +928,22 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>9, 10, 11, 12, 13, 45, 46, 47, 48, 49</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -856,6 +988,22 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1, 2, 9, 10, 12, 39, 45, 46, 48, 60</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,6 +1050,22 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>11, 12, 45, 48</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -948,6 +1112,22 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2381</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>11, 12, 20, 21, 43</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,6 +1174,22 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>12, 49</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1040,6 +1236,22 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1, 2, 12, 39, 60</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1088,6 +1300,22 @@
         <v>0.5</v>
       </c>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>9, 11, 12, 47, 49</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1136,6 +1364,22 @@
         <v>0.5</v>
       </c>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>12, 21</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +1428,22 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>12, 49</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1232,6 +1492,22 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1, 12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1554,22 @@
         <v>0.5</v>
       </c>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>9, 10, 11, 12, 13, 45, 46, 47, 48, 49</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1324,6 +1616,22 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>9, 11, 12, 13, 20, 21, 36, 37, 43, 46</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1370,6 +1678,22 @@
         <v>0.5</v>
       </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>9, 10, 11, 12, 13, 45, 46, 47, 48, 49</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1416,6 +1740,22 @@
         <v>0.1</v>
       </c>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1, 2, 9, 10, 12, 39, 45, 46, 48, 60</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1460,6 +1800,22 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>11, 12, 45, 48, 49</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1504,6 +1860,22 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>9, 12, 20, 21, 43, 46</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1548,6 +1920,22 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>11, 12, 49</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1592,6 +1980,22 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1, 9, 12, 45, 46, 48, 60</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1638,6 +2042,22 @@
       <c r="N26" t="n">
         <v>15</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>11, 12, 49, 10, 45, 48, 9, 13, 46, 47</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>11, 12, 45, 47, 49</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1684,6 +2104,22 @@
       <c r="N27" t="n">
         <v>15</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>9, 36, 37, 46, 12, 13, 20, 21, 11, 43</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>11, 12, 20, 21, 43, 46</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1730,6 +2166,22 @@
       <c r="N28" t="n">
         <v>15</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12, 11, 49, 45, 48, 10, 46, 47, 9, 13</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>11, 12, 47, 49</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1776,6 +2228,22 @@
       <c r="N29" t="n">
         <v>15</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>48, 9, 12, 1, 39, 45, 46, 2, 10, 60</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1, 12, 39, 45, 48</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
